--- a/doc/그래픽 디자인 문서.xlsx
+++ b/doc/그래픽 디자인 문서.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="오브젝트의 크기" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="원거리 유닛" sheetId="5" r:id="rId5"/>
     <sheet name="습격형 유닛" sheetId="6" r:id="rId6"/>
     <sheet name="동료" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="186">
   <si>
     <t>맵(한 구간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,13 +482,303 @@
     <t>날아갈 때가 되면 슈퍼맨 포즈를 하며 날아간다.
 (두 팔을 모두 앞으로 내밈)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방랑토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험을 좋아하는 토끼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>우연찮게 커프의 마을에 들려 커프와 함께 여정을 떠나는 중이다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그동안의 모험 생활로 인해 탄탄한 기본기를 갖춘 동료이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">특수한 능력이나 잔재주 등은 없지만 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험가 토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흰색 몸을 가지고 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 나침반 팬던트를 목에 걸고다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴 여정 동안의 햇빛을 막아줄 밀집모자를 항상 쓰고 다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커프와의 고된 여정을 통해 마침내 탐험가로 전직한 토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험가의 노련함으로 토끼는 이제 보다 더 멀리 이동할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험가 토끼는 다른 동료보다 바운스 횟수가 한회 더 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험 중 추위를 막아줄 가죽 조끼와 가죽 바지를 입고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전의 나침반 펜던트와 모자보다 더 크고 세련된 것을 지니고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인에게 버려진 고양이, 시궁창 거리를 떠돌다 커프의 눈에 들어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 커프와 함께 동행 중이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 몸체를 활용해 빠른 속도로 이동할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그만큼 공격력이 타 동료들 보다 낮다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똘망하고 커다란 눈을 지니고 있으며 꼬리에 항상 파란 리본을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묶고 다닌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장한 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장의 여파로 인해 몸집이 커져 속도가 감소하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 잃은 만큼 얻은 것도 있으니 속도 대신에 보다 높은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 고양이와 다르게 직립보행을 하게 되었으며, 꼬리에 파란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리본은 기존과 같이 추가로 목에 파란 밴드로 방울을 달고다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 얻게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커프를 따라다닌지 어연 몇 년, 이제 고양이도 많이 성장했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고양이는 어릴때부터 동경하던 것이 있었다. 그것은 그림책에서나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보던 마법사였다. 마침내 고양이는 그 꿈을 이루게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사가 된 고양이는 마법을 부려 적이 아닌 장애물 오브젝트엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌하지 않고 지나갈 수 있게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 마법사 꼬깔 모자와 파란 망토를 두르고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손에는 자신이 좋아하는 생선 뼈다귀를 지팡이 처럼 들고 쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북극곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도가 느린 대신 다른 종류의 동료들보다 덩치가 크고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 곰보다 약간 더 넓은 공격 범위와 데미지를 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 곰보다 적은 공격 범위를 가지고 있는 대신 적이 아닌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트들을 통과하는 능력을 가졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 곰보다 매우 높은 데미지를 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식탐과 호기심이 매우 강하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동자 계급의 옷을 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북극에서 돼지들에게 단지 귀엽다는 이유로 잡혀왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구해준 주인공을 위해 도움을 주고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이누이트족의 옷을 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동쪽의 나라에서 단지 희귀하다는 이유로 잡혀왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공이 먹을 것을 주고 있기에 따라다니고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어미를 돼지들에 의해 잃고, 구해준 주인공을 따라다니며 도와주고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인민복을 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린 나이에 혼자서 돼지들에게 저항하다가 한쪽 눈을 잃고 잡혀있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구해준 주인공을 도와주고 있지만 매우 난폭해서 다른 동료들이 다가가기 힘들어 하는 편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동자 계급의 옷을 입고 있고, 한 쪽 눈에 흉터가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 데미지를 가지고 있다.(기본)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신 날아가는 속도가 약간 느리다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위는 같다. 그대신 날아가는 속도가 매우 느리다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반달 가슴 곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지들의 음식을 훔쳐 갇혀있다가 주인공에 의해 구조되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난끼가 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 곰보다 덩치가 작은 대신 튕기는 횟수가 높고 날아가는 속도가 빠르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱스터 토끼</t>
+  </si>
+  <si>
+    <t>결국 현재의 부당한 사회구조에 불만을 품고 갱스터가 된 토끼</t>
+  </si>
+  <si>
+    <t>이전의 진취적이고 도전적인 성격은 모두 분노로 뒤바껴있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">짙어진 분노로 인해 그는 주변 상황을 보지 못하고 앞만 보고 돌격 </t>
+  </si>
+  <si>
+    <t>하는 성질을 띄게 되었다. 이러한 성질로 인해 갱스터 토끼는 절대</t>
+  </si>
+  <si>
+    <t>바운스를 하지않는다. 대신에 공격력이 무지막지하게 상승되었다.</t>
+  </si>
+  <si>
+    <t>낡아 해진 옷들은 모두 버리고 갱단 사업으로 벌어들인 돈으로 새</t>
+  </si>
+  <si>
+    <t>정장과 정장모를 멋스럽게 갖추고 있다. 정장은 전체적으로 블랙계열</t>
+  </si>
+  <si>
+    <t>이며 오른손에는 언제나 시가 한개비를 들고 다닌다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +802,48 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,8 +862,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -553,11 +901,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -584,8 +990,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
+    <cellStyle name="보통" xfId="4" builtinId="28"/>
+    <cellStyle name="제목 2" xfId="1" builtinId="17"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,7 +1050,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -673,7 +1099,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -717,7 +1143,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -761,7 +1187,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -810,7 +1236,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -854,7 +1280,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -898,7 +1324,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -942,7 +1368,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -991,7 +1417,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1040,7 +1466,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1084,7 +1510,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1133,7 +1559,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1177,7 +1603,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1221,7 +1647,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1265,7 +1691,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1309,7 +1735,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1353,7 +1779,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1373,6 +1799,525 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="이뉴이트_3단계.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="466724"/>
+          <a:ext cx="1228725" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="이뉴이트_5단계.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="4105274"/>
+          <a:ext cx="1171575" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566339</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="제목 없음.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="609601"/>
+          <a:ext cx="3900089" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566339</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5" descr="제목 없음.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="4143375"/>
+          <a:ext cx="3900089" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2095501</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6" descr="tc20120116-갱스터토끼b.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7658100"/>
+          <a:ext cx="2095501" cy="1660072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="아코_1단계.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="523875"/>
+          <a:ext cx="1362075" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="아코_3단계.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="4095749"/>
+          <a:ext cx="1352550" cy="2076451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1645340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="아코_5단계.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="8153400"/>
+          <a:ext cx="1616765" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3799896</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838199" y="507383"/>
+          <a:ext cx="3790372" cy="2131041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40658</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3143250" cy="2131041"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="4545983"/>
+          <a:ext cx="3143250" cy="2131041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40658</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3343274" cy="2131041"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923926" y="8584583"/>
+          <a:ext cx="3343274" cy="2131041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170603</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>40658</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3192570" cy="2131041"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="999278" y="12623183"/>
+          <a:ext cx="3192570" cy="2131041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323819</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>40658</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3161781" cy="2131041"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152494" y="16661783"/>
+          <a:ext cx="3161781" cy="2131041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1451,7 +2396,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1486,7 +2430,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1662,14 +2605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
@@ -1678,17 +2621,17 @@
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1712,7 +2655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1790,20 +2733,270 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>14</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="76.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="14" spans="1:2">
+      <c r="A14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="19"/>
+    </row>
+    <row r="21" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A21" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="33" spans="1:2">
+      <c r="A33" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="19"/>
+    </row>
+    <row r="40" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A40" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="52" spans="1:2">
+      <c r="A52" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="19"/>
+    </row>
+    <row r="59" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A59" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="71" spans="1:2">
+      <c r="A71" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" s="19"/>
+    </row>
+    <row r="78" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A78" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="90" spans="1:2">
+      <c r="A90" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" s="19"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,21 +3007,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +3038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1862,7 +3055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1876,7 +3069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +3080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="D7" t="s">
         <v>26</v>
       </c>
@@ -1895,42 +3088,42 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="J8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="J9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="J10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="J11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="J12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="J13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="J14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="J15" t="s">
         <v>83</v>
       </c>
@@ -1942,14 +3135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="69.625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
@@ -1959,7 +3152,7 @@
     <col min="11" max="11" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
@@ -1967,7 +3160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1981,7 +3174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11">
       <c r="B23" s="3">
         <v>1</v>
       </c>
@@ -1995,7 +3188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11">
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -2009,7 +3202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11">
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -2023,7 +3216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11">
       <c r="B26" s="3">
         <v>4</v>
       </c>
@@ -2031,12 +3224,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11">
       <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3">
       <c r="B45" s="5" t="s">
         <v>37</v>
       </c>
@@ -2044,7 +3237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2052,7 +3245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3">
       <c r="B47" s="5">
         <v>2</v>
       </c>
@@ -2060,7 +3253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3">
       <c r="B48" s="5">
         <v>3</v>
       </c>
@@ -2068,7 +3261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" s="5">
         <v>4</v>
       </c>
@@ -2084,20 +3277,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="63.75" customWidth="1"/>
     <col min="7" max="7" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6">
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
@@ -2105,7 +3298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7">
       <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
@@ -2119,7 +3312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7">
       <c r="C19" s="5">
         <v>1</v>
       </c>
@@ -2133,7 +3326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7">
       <c r="C20" s="5">
         <v>2</v>
       </c>
@@ -2147,7 +3340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7">
       <c r="C21" s="5">
         <v>3</v>
       </c>
@@ -2161,7 +3354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7">
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
@@ -2169,7 +3362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7">
       <c r="C38" s="3" t="s">
         <v>52</v>
       </c>
@@ -2183,7 +3376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" ht="33">
       <c r="C39" s="3">
         <v>1</v>
       </c>
@@ -2197,7 +3390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" ht="33">
       <c r="C40" s="3">
         <v>2</v>
       </c>
@@ -2211,7 +3404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7">
       <c r="C41" s="3">
         <v>3</v>
       </c>
@@ -2234,24 +3427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4">
       <c r="C3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4">
       <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
@@ -2259,7 +3452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" ht="36" customHeight="1">
       <c r="C17" s="3">
         <v>1</v>
       </c>
@@ -2267,7 +3460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" ht="33">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -2283,20 +3476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="49.25" customWidth="1"/>
     <col min="8" max="8" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -2304,7 +3497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8">
       <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +3511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8">
       <c r="C22" s="3">
         <v>1</v>
       </c>
@@ -2332,7 +3525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" ht="47.25" customHeight="1">
       <c r="C23" s="3">
         <v>2</v>
       </c>
@@ -2346,7 +3539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8">
       <c r="C24" s="3">
         <v>3</v>
       </c>
@@ -2368,14 +3561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
@@ -2383,7 +3576,7 @@
     <col min="9" max="9" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>85</v>
       </c>
@@ -2394,7 +3587,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -2414,7 +3607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="33">
       <c r="B19">
         <v>1</v>
       </c>
@@ -2434,7 +3627,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="33">
       <c r="B20">
         <v>2</v>
       </c>
@@ -2454,7 +3647,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="33">
       <c r="B21">
         <v>3</v>
       </c>
@@ -2474,7 +3667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9">
       <c r="B22">
         <v>4</v>
       </c>
@@ -2482,7 +3675,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>99</v>
       </c>
@@ -2493,7 +3686,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>101</v>
       </c>
@@ -2513,7 +3706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="33">
       <c r="B40">
         <v>1</v>
       </c>
@@ -2533,7 +3726,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="33">
       <c r="B41">
         <v>2</v>
       </c>
@@ -2559,4 +3752,344 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="57.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="28" spans="1:2">
+      <c r="A28" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A36" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="45" spans="1:2">
+      <c r="A45" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="55.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="30" spans="1:2">
+      <c r="A30" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A38" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" thickTop="1"/>
+    <row r="48" spans="1:2">
+      <c r="A48" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/그래픽 디자인 문서.xlsx
+++ b/doc/그래픽 디자인 문서.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="오브젝트의 크기" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,18 @@
     <sheet name="원거리 유닛" sheetId="5" r:id="rId5"/>
     <sheet name="습격형 유닛" sheetId="6" r:id="rId6"/>
     <sheet name="동료" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="토끼" sheetId="8" r:id="rId8"/>
+    <sheet name="고양이" sheetId="9" r:id="rId9"/>
+    <sheet name="곰" sheetId="10" r:id="rId10"/>
+    <sheet name="양" sheetId="11" r:id="rId11"/>
+    <sheet name="거북" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="237">
   <si>
     <t>맵(한 구간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*슬라이딩 장애물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>긴 플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,18 +68,6 @@
   </si>
   <si>
     <t>크기 = WIDTH * LENGTH * HEIGHT  (WIDTH가 화면에서 보이는 쪽)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*반 원통 안에 빈 공간은 지름 2, 높이 1(=반지름)의 공간이다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*슬라이딩 장애물은 다른 오브젝트들과는 달리 반 원통형이고 안쪽에 빈 공간을 갖는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*빈 공간 바깥의 두께는 0.5m이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,277 +494,497 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">특수한 능력이나 잔재주 등은 없지만 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험가 토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흰색 몸을 가지고 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 나침반 팬던트를 목에 걸고다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴 여정 동안의 햇빛을 막아줄 밀집모자를 항상 쓰고 다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커프와의 고된 여정을 통해 마침내 탐험가로 전직한 토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험가의 노련함으로 토끼는 이제 보다 더 멀리 이동할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험가 토끼는 다른 동료보다 바운스 횟수가 한회 더 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험 중 추위를 막아줄 가죽 조끼와 가죽 바지를 입고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전의 나침반 펜던트와 모자보다 더 크고 세련된 것을 지니고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인에게 버려진 고양이, 시궁창 거리를 떠돌다 커프의 눈에 들어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 커프와 함께 동행 중이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 몸체를 활용해 빠른 속도로 이동할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그만큼 공격력이 타 동료들 보다 낮다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똘망하고 커다란 눈을 지니고 있으며 꼬리에 항상 파란 리본을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묶고 다닌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장한 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장의 여파로 인해 몸집이 커져 속도가 감소하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 잃은 만큼 얻은 것도 있으니 속도 대신에 보다 높은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 고양이와 다르게 직립보행을 하게 되었으며, 꼬리에 파란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리본은 기존과 같이 추가로 목에 파란 밴드로 방울을 달고다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 얻게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커프를 따라다닌지 어연 몇 년, 이제 고양이도 많이 성장했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고양이는 어릴때부터 동경하던 것이 있었다. 그것은 그림책에서나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보던 마법사였다. 마침내 고양이는 그 꿈을 이루게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사가 된 고양이는 마법을 부려 적이 아닌 장애물 오브젝트엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌하지 않고 지나갈 수 있게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 마법사 꼬깔 모자와 파란 망토를 두르고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손에는 자신이 좋아하는 생선 뼈다귀를 지팡이 처럼 들고 쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식탐과 호기심이 매우 강하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동자 계급의 옷을 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북극에서 돼지들에게 단지 귀엽다는 이유로 잡혀왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구해준 주인공을 위해 도움을 주고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이누이트족의 옷을 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동쪽의 나라에서 단지 희귀하다는 이유로 잡혀왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공이 먹을 것을 주고 있기에 따라다니고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어미를 돼지들에 의해 잃고, 구해준 주인공을 따라다니며 도와주고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인민복을 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린 나이에 혼자서 돼지들에게 저항하다가 한쪽 눈을 잃고 잡혀있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구해준 주인공을 도와주고 있지만 매우 난폭해서 다른 동료들이 다가가기 힘들어 하는 편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동자 계급의 옷을 입고 있고, 한 쪽 눈에 흉터가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지들의 음식을 훔쳐 갇혀있다가 주인공에 의해 구조되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난끼가 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱스터 토끼</t>
+  </si>
+  <si>
+    <t>결국 현재의 부당한 사회구조에 불만을 품고 갱스터가 된 토끼</t>
+  </si>
+  <si>
+    <t>이전의 진취적이고 도전적인 성격은 모두 분노로 뒤바껴있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">짙어진 분노로 인해 그는 주변 상황을 보지 못하고 앞만 보고 돌격 </t>
+  </si>
+  <si>
+    <t>하는 성질을 띄게 되었다. 이러한 성질로 인해 갱스터 토끼는 절대</t>
+  </si>
+  <si>
+    <t>바운스를 하지않는다. 대신에 공격력이 무지막지하게 상승되었다.</t>
+  </si>
+  <si>
+    <t>낡아 해진 옷들은 모두 버리고 갱단 사업으로 벌어들인 돈으로 새</t>
+  </si>
+  <si>
+    <t>정장과 정장모를 멋스럽게 갖추고 있다. 정장은 전체적으로 블랙계열</t>
+  </si>
+  <si>
+    <t>이며 오른손에는 언제나 시가 한개비를 들고 다닌다.</t>
+  </si>
+  <si>
+    <t>곰(tier0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북극곰(tier1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다(tier2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑곰(tier2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반달 가슴 곰(tier1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날아갈 때의 자세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 중 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std rabbit img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std kitten img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std cat img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤뚱거리며 뛴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼맨 자세를 하고 날아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>그동안의 모험 생활로 인해 탄탄한 기본기를 갖춘 동료이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">특수한 능력이나 잔재주 등은 없지만 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐험가 토끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">흰색 몸을 가지고 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간단한 나침반 팬던트를 목에 걸고다닌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>긴 여정 동안의 햇빛을 막아줄 밀집모자를 항상 쓰고 다닌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커프와의 고된 여정을 통해 마침내 탐험가로 전직한 토끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐험가의 노련함으로 토끼는 이제 보다 더 멀리 이동할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐험가 토끼는 다른 동료보다 바운스 횟수가 한회 더 증가한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐험 중 추위를 막아줄 가죽 조끼와 가죽 바지를 입고있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전의 나침반 펜던트와 모자보다 더 크고 세련된 것을 지니고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인에게 버려진 고양이, 시궁창 거리를 떠돌다 커프의 눈에 들어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재는 커프와 함께 동행 중이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 몸체를 활용해 빠른 속도로 이동할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 그만큼 공격력이 타 동료들 보다 낮다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>똘망하고 커다란 눈을 지니고 있으며 꼬리에 항상 파란 리본을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묶고 다닌다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성장한 고양이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성장의 여파로 인해 몸집이 커져 속도가 감소하였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">하지만 잃은 만큼 얻은 것도 있으니 속도 대신에 보다 높은 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 고양이와 다르게 직립보행을 하게 되었으며, 꼬리에 파란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리본은 기존과 같이 추가로 목에 파란 밴드로 방울을 달고다닌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력을 얻게 되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커프를 따라다닌지 어연 몇 년, 이제 고양이도 많이 성장했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법사 고양이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">고양이는 어릴때부터 동경하던 것이 있었다. 그것은 그림책에서나 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보던 마법사였다. 마침내 고양이는 그 꿈을 이루게 되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법사가 된 고양이는 마법을 부려 적이 아닌 장애물 오브젝트엔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충돌하지 않고 지나갈 수 있게 되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란 마법사 꼬깔 모자와 파란 망토를 두르고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손에는 자신이 좋아하는 생선 뼈다귀를 지팡이 처럼 들고 쓴다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북극곰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑곰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도가 느린 대신 다른 종류의 동료들보다 덩치가 크고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 곰보다 약간 더 넓은 공격 범위와 데미지를 가지고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 곰보다 적은 공격 범위를 가지고 있는 대신 적이 아닌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트들을 통과하는 능력을 가졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 곰보다 매우 높은 데미지를 가지고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식탐과 호기심이 매우 강하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노동자 계급의 옷을 입고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북극에서 돼지들에게 단지 귀엽다는 이유로 잡혀왔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구해준 주인공을 위해 도움을 주고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이누이트족의 옷을 입고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동쪽의 나라에서 단지 희귀하다는 이유로 잡혀왔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공이 먹을 것을 주고 있기에 따라다니고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어미를 돼지들에 의해 잃고, 구해준 주인공을 따라다니며 도와주고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인민복을 입고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린 나이에 혼자서 돼지들에게 저항하다가 한쪽 눈을 잃고 잡혀있었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구해준 주인공을 도와주고 있지만 매우 난폭해서 다른 동료들이 다가가기 힘들어 하는 편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노동자 계급의 옷을 입고 있고, 한 쪽 눈에 흉터가 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한 데미지를 가지고 있다.(기본)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신 날아가는 속도가 약간 느리다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위는 같다. 그대신 날아가는 속도가 매우 느리다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반달 가슴 곰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지들의 음식을 훔쳐 갇혀있다가 주인공에 의해 구조되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장난끼가 많다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 곰보다 덩치가 작은 대신 튕기는 횟수가 높고 날아가는 속도가 빠르다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갱스터 토끼</t>
-  </si>
-  <si>
-    <t>결국 현재의 부당한 사회구조에 불만을 품고 갱스터가 된 토끼</t>
-  </si>
-  <si>
-    <t>이전의 진취적이고 도전적인 성격은 모두 분노로 뒤바껴있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">짙어진 분노로 인해 그는 주변 상황을 보지 못하고 앞만 보고 돌격 </t>
-  </si>
-  <si>
-    <t>하는 성질을 띄게 되었다. 이러한 성질로 인해 갱스터 토끼는 절대</t>
-  </si>
-  <si>
-    <t>바운스를 하지않는다. 대신에 공격력이 무지막지하게 상승되었다.</t>
-  </si>
-  <si>
-    <t>낡아 해진 옷들은 모두 버리고 갱단 사업으로 벌어들인 돈으로 새</t>
-  </si>
-  <si>
-    <t>정장과 정장모를 멋스럽게 갖추고 있다. 정장은 전체적으로 블랙계열</t>
-  </si>
-  <si>
-    <t>이며 오른손에는 언제나 시가 한개비를 들고 다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰 특성상 많이 게으른 면이 있는데 이 아이도 별 차이 없어 행동거지가 느린편이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 힘 만큼은 곰 답게 강력하여 높은 공격력을 지니고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">북극곰은 북극의 추위를 이겨내기 위해 다른 곰들 보다 많은 털을 가지고 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때문에 부피와 중량이 증가해 더 넓은 범위를 공격할 수 있지만 그만큼 속도도 떨어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다는 재주가 많아 화려한 묘기 등을 통해 방해 오브젝트를 충돌없이 지나갈 수있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 곰과 외형 빼고 크기나  다른 차이점이 없어 보이지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰 계열 중 보스인 흑곰, 보스답게 다른 곰들 보다 월등히 높은 공격력을 가지고 있지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부상으로 인해 거동이 불편하여 속도가 매우 느린 편이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲에서 나무를 타고 다니는 반달곰은 그 재능을 활용해 다른 곰들보다 많은 바운스 횟수를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지니고 있다. 크기는 기본곰과 같이 왜소하여 그 외의 특징은 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악덕 돼지들이 식용 및 원단 재료로 쓰려고 무자비하게 기르고 있던 양을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커프가 구출해냈다. 이후 커프의 지극한 보살핌에 그의 동료가 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰 색의 털을 지니고 있으며 기본 사이즈에 몸에 어떠한 것도 걸치지 않은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이다. 양털은 적당한 상태로 자라있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집사 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지들 패거리의 유흥거리 중 하나인 산양 싸움이라는 것이 있는데, 이 산양은 그곳에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심하게 상처를 입고 시궁창에 버러져, 커프의 동료들 곁으로 오게되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 굵고 길게 말려있는 커다란 뿔을 지니고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인상이 사나우며 잦은 싸움으로 인해 얼굴에 흉터가 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료들과의 생활으로 몸과 마음이 치유되어 예의바르고 신수도 훤해져 말끔해진 양,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 외모와 성격이 잘맞는 직업을 찾다가 집사일을 하게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말끔한 집사복 차림에 잘 정돈되어 있는 털과 모나지 않게 다듬어져 있는 뿔을 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 집안에서 태어난 소녀 양, 서민들의 사회에 강한 호기심을 가지고 있어 커프의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료들이 기거하는 아지트 까지 따라온 대책없는 말괄량이 아가씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔한 쿠앤크 배색의 원피스 차림에 머리는 리본으로 여성스럽게 땋아져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿔은 없고 앙증맞은 귀가 아래로 축 늘어져 있어 귀여운 느낌의 이미지가 물씬 풍긴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이딩 장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료 마을에서 악동 타이틀을 달고 행동대장 처럼 군림하던 거북이, 그의 유일한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이벌 토끼가 원정대에 합류했다는 이야기를 듣고선 그도 원정대에 합류하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸집이 작고 태생적으로 느려 공격력이나 속도 뭣하나 빼어난 것이 없지만 한가지 특기가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다면 그의 단단한 등껍질을 이용해 방패병들의 방패를 파괴할 수 있다는 점이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난끼가 잔뜩 묻어있는 얼굴을 지니고 있으며 특이점이 있는 장구류 등은 착용하지 않고</t>
+  </si>
+  <si>
+    <t>있다. 사이즈는 보통, 주목받기를 좋아해 매일 빨간색의 신발을 신고다닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개달린 거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전리품으로 날개 아티펙트를 획득한 거북이, 착용 후 날아보려 하지만 몸무게에 비해 날개가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터무니 없이 작아 날 수가 없었다. 대신에 날갯바람을 활용해 그의 이동속도가 증가하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 거북이의 단점과 장점을 모두 지니고 있지만 날개 아티펙트로 인하여 전보다 향상된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 거북이 외형에 추가로 거북이 등껍질에 작은 날개가 한쌍 돋아나 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하수로의 폐수를 잘못마셔 온몸이 괴물같이 되어버린 거북이, 등껍질과 머리 또는 꼬리 등에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뾰족한 가시가 돋아나버렸으며 거북이는 이에 콤플렉스를 느껴 온몸을 펑크스타일로 꾸미고 다닌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온몸에 돋아난 가시로 인하여 기본 거북이보다 공격력이 비약적으로 증가하여 강력한 병기가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되었다. 허나 괴물같이 비대해진 몸집으로 인해 속도는 더욱 감소하게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리엔 뿔, 등과 꼬리에는 가시가 돋아나 있으며 팔에 징이박힌 암리스트를 착용하고 머리를 붉게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물들여 매우 불량스럽게 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +1048,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -878,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -947,8 +1162,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -962,8 +1186,11 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1006,10 +1233,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="4" builtinId="28"/>
+    <cellStyle name="제목 1" xfId="5" builtinId="16"/>
     <cellStyle name="제목 2" xfId="1" builtinId="17"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1025,55 +1254,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="1857375"/>
-          <a:ext cx="1419225" cy="1419225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1099,7 +1279,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1143,7 +1323,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1187,7 +1367,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1210,7 +1390,126 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1422960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="ee7.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="485775"/>
+          <a:ext cx="1375335" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2181225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>170500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="200px-ParatroopaNSMBU.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="4724400"/>
+          <a:ext cx="2152650" cy="2475550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53105</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2902598</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="ee3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="738905" y="8772526"/>
+          <a:ext cx="2849493" cy="2466974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1236,7 +1535,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1280,7 +1579,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1324,7 +1623,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1368,7 +1667,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1391,7 +1690,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1417,7 +1716,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1440,7 +1739,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1466,7 +1765,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1510,7 +1809,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1533,7 +1832,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1559,7 +1858,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1603,7 +1902,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1647,7 +1946,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1691,7 +1990,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1735,7 +2034,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1779,7 +2078,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1802,20 +2101,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>257174</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:colOff>1257300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1832,7 +2131,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="466724"/>
+          <a:off x="714375" y="533399"/>
           <a:ext cx="1228725" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1882,16 +2181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53783</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>566339</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1908,46 +2207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5829300" y="609601"/>
-          <a:ext cx="3900089" cy="2419350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>566339</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5" descr="제목 없음.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="4143375"/>
-          <a:ext cx="3900089" cy="2419350"/>
+          <a:off x="6521258" y="504825"/>
+          <a:ext cx="2498917" cy="2882951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1997,7 +2258,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2113,10 +2374,86 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114715</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="kitten.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="504825"/>
+          <a:ext cx="2810290" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>35768</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5" descr="cat.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6312743" y="4238624"/>
+          <a:ext cx="3040807" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2142,7 +2479,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2181,7 +2518,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2220,7 +2557,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2259,7 +2596,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2298,7 +2635,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2318,6 +2655,163 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="fc01220020.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="485776"/>
+          <a:ext cx="2019300" cy="1433512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2046514</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>193358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="fc01220021.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="3924300"/>
+          <a:ext cx="2017939" cy="1412558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="62.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="7096125"/>
+          <a:ext cx="1600200" cy="1857623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1635098</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>176970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="61.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="10706100"/>
+          <a:ext cx="1606522" cy="2062920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2396,6 +2890,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2430,6 +2925,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2605,14 +3101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
@@ -2621,17 +3117,17 @@
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -2646,16 +3142,16 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2672,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>4.5</v>
@@ -2681,7 +3177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2698,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -2707,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2724,7 +3220,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2">
         <v>0.5</v>
@@ -2733,20 +3229,488 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="76.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="61.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+    </row>
+    <row r="40" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="19"/>
+    </row>
+    <row r="59" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="19"/>
+    </row>
+    <row r="78" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2756,376 +3720,484 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B95"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="76.125" customWidth="1"/>
+    <col min="2" max="2" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" thickBot="1">
+    <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="14" spans="1:2">
-      <c r="A14" s="16" t="s">
-        <v>113</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="19"/>
-    </row>
-    <row r="21" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A21" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="33" spans="1:2">
-      <c r="A33" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="19"/>
-    </row>
-    <row r="40" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A40" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="52" spans="1:2">
-      <c r="A52" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="19"/>
-    </row>
-    <row r="59" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A59" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="71" spans="1:2">
-      <c r="A71" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="B74" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="B76" s="19"/>
-    </row>
-    <row r="78" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A78" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="90" spans="1:2">
-      <c r="A90" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="19"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="19"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="19"/>
+    </row>
+    <row r="50" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="83.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="J8" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="J12" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="J13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="J14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="J15" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3135,14 +4207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="69.625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
@@ -3152,121 +4224,121 @@
     <col min="11" max="11" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J24" s="5">
         <v>2</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J25" s="5">
         <v>3</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3277,145 +4349,145 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="63.75" customWidth="1"/>
     <col min="7" max="7" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="33">
+    </row>
+    <row r="39" spans="3:7" ht="33" x14ac:dyDescent="0.3">
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="33" x14ac:dyDescent="0.3">
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F40" s="3">
         <v>2</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F41" s="3">
         <v>3</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3427,45 +4499,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="36" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3476,81 +4548,81 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="49.25" customWidth="1"/>
     <col min="8" max="8" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="47.25" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3561,14 +4633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
@@ -3576,174 +4648,174 @@
     <col min="9" max="9" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>89</v>
       </c>
-      <c r="H2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="33">
+    </row>
+    <row r="19" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
         <v>86</v>
       </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
       <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s">
         <v>86</v>
       </c>
-      <c r="I39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="33">
+    </row>
+    <row r="40" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="33">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3755,170 +4827,173 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" thickBot="1">
+    <row r="2" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="13" t="s">
+    <row r="20" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="22" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="20.25" thickBot="1">
+    <row r="36" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="45" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" s="19" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3930,160 +5005,166 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.375" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" thickBot="1">
+    <row r="2" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="11" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="19" t="s">
+    <row r="19" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="E19" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="19" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="19" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="30" spans="1:2">
-      <c r="A30" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="38" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A38" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25" thickTop="1"/>
-    <row r="48" spans="1:2">
-      <c r="A48" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="18" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="19" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="B51" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
